--- a/fastqFiles/fastq_J.PLAGGENBERG_09.19.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_09.19.19.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FBF1EA-987B-3F47-986E-35D2590AC473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21480" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>libraryDate</t>
   </si>
@@ -63,107 +72,159 @@
   </si>
   <si>
     <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>Brent_10_GTAC_10_SIC_Index_06_GGCAGCG_GACCTTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_11_GTAC_11_SIC_Index_06_CCATCAT_GACCTTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_12_GTAC_12_SIC_Index_06_TAACAAG_GACCTTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_13_GTAC_13_SIC_Index_06_GAGGCGT_GACCTTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_14_GTAC_14_SIC_Index_06_TTTAACT_GACCTTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_15_GTAC_15_SIC_Index_06_GGTCCTC_GACCTTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_16_GTAC_16_SIC_Index_06_CGGTGGC_GACCTTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_17_GTAC_18_SIC_Index_06_GTATTTG_GACCTTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_18_GTAC_17_SIC_Index_06_ACTGTCG_GACCTTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_1_GTAC_1_SIC_Index_06_TGAGGTT_GACCTTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_2_GTAC_2_SIC_Index_06_GCTTAGA_GACCTTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3_GTAC_3_SIC_Index_06_ATGACAG_GACCTTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4_GTAC_4_SIC_Index_06_CACCTCC_GACCTTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5_GTAC_5_SIC_Index_06_ATCGAGC_GACCTTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6_GTAC_6_SIC_Index_06_TACTCTA_GACCTTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_7_GTAC_7_SIC_Index_06_AGACTGA_GACCTTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_8_GTAC_8_SIC_Index_06_CTTGGAA_GACCTTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_9_GTAC_9_SIC_Index_06_CCGATTA_GACCTTGT_S10_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -353,23 +414,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -421,7 +487,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -429,10 +495,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5" t="s">
@@ -451,14 +517,16 @@
         <v>1.03</v>
       </c>
       <c r="K2" s="1">
-        <v>1.3068011E7</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+        <v>13068011</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -469,7 +537,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -477,10 +545,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
@@ -499,13 +567,15 @@
         <v>2.19</v>
       </c>
       <c r="K3" s="1">
-        <v>2.3631191E7</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+        <v>23631191</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -517,7 +587,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -525,10 +595,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
@@ -547,14 +617,16 @@
         <v>1.08</v>
       </c>
       <c r="K4" s="1">
-        <v>2.6909813E7</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+        <v>26909813</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -565,7 +637,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -573,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
@@ -589,20 +661,22 @@
         <v>16</v>
       </c>
       <c r="I5" s="3">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="J5" s="1">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K5" s="1">
-        <v>2.4568199E7</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+        <v>24568199</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -613,7 +687,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,10 +695,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
@@ -643,13 +717,15 @@
         <v>1.02</v>
       </c>
       <c r="K6" s="1">
-        <v>2.625769E7</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+        <v>26257690</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -661,7 +737,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -669,10 +745,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
@@ -685,20 +761,22 @@
         <v>16</v>
       </c>
       <c r="I7" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1">
         <v>0.98</v>
       </c>
       <c r="K7" s="1">
-        <v>2.2686719E7</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+        <v>22686719</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -709,7 +787,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -717,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="5" t="s">
@@ -739,14 +817,16 @@
         <v>1.53</v>
       </c>
       <c r="K8" s="1">
-        <v>2.1896512E7</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+        <v>21896512</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -757,7 +837,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -765,10 +845,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
@@ -787,13 +867,15 @@
         <v>1.18</v>
       </c>
       <c r="K9" s="1">
-        <v>2.5919659E7</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+        <v>25919659</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -805,7 +887,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -813,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5" t="s">
@@ -835,14 +917,16 @@
         <v>2.76</v>
       </c>
       <c r="K10" s="1">
-        <v>2.4713823E7</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+        <v>24713823</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -853,7 +937,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -861,10 +945,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="5" t="s">
@@ -883,13 +967,15 @@
         <v>1.38</v>
       </c>
       <c r="K11" s="1">
-        <v>2.385887E7</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+        <v>23858870</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -901,7 +987,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -909,10 +995,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5" t="s">
@@ -931,13 +1017,15 @@
         <v>1.25</v>
       </c>
       <c r="K12" s="1">
-        <v>2.7763785E7</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+        <v>27763785</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -949,7 +1037,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -957,10 +1045,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
@@ -973,19 +1061,21 @@
         <v>16</v>
       </c>
       <c r="I13" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1">
         <v>1.07</v>
       </c>
       <c r="K13" s="1">
-        <v>2.6839637E7</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+        <v>26839637</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -997,7 +1087,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1005,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="5" t="s">
@@ -1027,13 +1117,15 @@
         <v>2.12</v>
       </c>
       <c r="K14" s="1">
-        <v>2.6113966E7</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+        <v>26113966</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1045,7 +1137,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1053,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
@@ -1075,13 +1167,15 @@
         <v>3.11</v>
       </c>
       <c r="K15" s="1">
-        <v>5875373.0</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+        <v>5875373</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1093,7 +1187,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1101,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="5" t="s">
@@ -1123,13 +1217,15 @@
         <v>0.96</v>
       </c>
       <c r="K16" s="1">
-        <v>2.4705133E7</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+        <v>24705133</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1141,7 +1237,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1149,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
@@ -1165,19 +1261,21 @@
         <v>16</v>
       </c>
       <c r="I17" s="3">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="J17" s="1">
         <v>953.48</v>
       </c>
       <c r="K17" s="1">
-        <v>3725.0</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+        <v>3725</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1189,7 +1287,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1197,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
@@ -1219,13 +1317,15 @@
         <v>1.23</v>
       </c>
       <c r="K18" s="1">
-        <v>2.5836498E7</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+        <v>25836498</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1237,7 +1337,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1245,10 +1345,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
-        <v>3900.0</v>
+        <v>3884</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="5" t="s">
@@ -1264,16 +1364,18 @@
         <v>19.8</v>
       </c>
       <c r="J19" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K19" s="1">
-        <v>2.6343157E7</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+        <v>26343157</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1286,114 +1388,115 @@
       <c r="Z19" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.43"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>1.3068011E7</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>13068011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2.3631191E7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>23631191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.6909813E7</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>26909813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.4568199E7</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>24568199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2.625769E7</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>26257690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2.2686719E7</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>22686719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2.1896512E7</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>21896512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2.5919659E7</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>25919659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2.4713823E7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>24713823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2.385887E7</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>23858870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2.7763785E7</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>27763785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2.6839637E7</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>26839637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2.6113966E7</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>26113966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>5875373.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5875373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2.4705133E7</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>24705133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3725.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2.5836498E7</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>25836498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2.6343157E7</v>
+        <v>26343157</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>